--- a/database/_legacy-data/_Tor.xlsx
+++ b/database/_legacy-data/_Tor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="0" windowWidth="25635" windowHeight="14280"/>
+    <workbookView xWindow="1140" yWindow="0" windowWidth="19425" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tor" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tor!$A$1:$D$3923</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -873,19 +873,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D3923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A3878" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D3923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4793,7 +4790,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>286</v>
       </c>
@@ -4807,7 +4804,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>287</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>288</v>
       </c>
@@ -4835,7 +4832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>289</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>290</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>291</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>292</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>293</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>294</v>
       </c>
@@ -4919,7 +4916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>295</v>
       </c>
@@ -5213,7 +5210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>316</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>317</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>318</v>
       </c>
@@ -7019,7 +7016,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>445</v>
       </c>
@@ -7033,7 +7030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>446</v>
       </c>
@@ -7047,7 +7044,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>447</v>
       </c>
@@ -7061,7 +7058,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>448</v>
       </c>
@@ -7075,7 +7072,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>449</v>
       </c>
@@ -7089,7 +7086,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>450</v>
       </c>
@@ -7103,7 +7100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>451</v>
       </c>
@@ -7117,7 +7114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>452</v>
       </c>
@@ -7131,7 +7128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>453</v>
       </c>
@@ -11093,7 +11090,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>746</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>747</v>
       </c>
@@ -11121,7 +11118,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>748</v>
       </c>
@@ -11135,7 +11132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>749</v>
       </c>
@@ -11149,7 +11146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>750</v>
       </c>
@@ -11163,7 +11160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>751</v>
       </c>
@@ -11177,7 +11174,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>752</v>
       </c>
@@ -15461,7 +15458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>1058</v>
       </c>
@@ -15475,7 +15472,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>1059</v>
       </c>
@@ -15489,7 +15486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>1060</v>
       </c>
@@ -15503,7 +15500,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>1061</v>
       </c>
@@ -15517,7 +15514,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>1062</v>
       </c>
@@ -15531,7 +15528,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>1063</v>
       </c>
@@ -15545,7 +15542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>1064</v>
       </c>
@@ -15559,7 +15556,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>1065</v>
       </c>
@@ -15573,7 +15570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050">
         <v>1066</v>
       </c>
@@ -15587,7 +15584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051">
         <v>1067</v>
       </c>
@@ -15601,7 +15598,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052">
         <v>1068</v>
       </c>
@@ -15615,7 +15612,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053">
         <v>1069</v>
       </c>
@@ -15629,7 +15626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054">
         <v>1070</v>
       </c>
@@ -15643,7 +15640,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055">
         <v>1071</v>
       </c>
@@ -15699,7 +15696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059">
         <v>1075</v>
       </c>
@@ -15713,7 +15710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060">
         <v>1076</v>
       </c>
@@ -15727,7 +15724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061">
         <v>1077</v>
       </c>
@@ -15741,7 +15738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062">
         <v>1078</v>
       </c>
@@ -15755,7 +15752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063">
         <v>1079</v>
       </c>
@@ -15769,7 +15766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064">
         <v>1080</v>
       </c>
@@ -15783,7 +15780,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>1081</v>
       </c>
@@ -15797,7 +15794,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066">
         <v>1082</v>
       </c>
@@ -15811,7 +15808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067">
         <v>1083</v>
       </c>
@@ -15825,7 +15822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068">
         <v>1084</v>
       </c>
@@ -15839,7 +15836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069">
         <v>1085</v>
       </c>
@@ -15853,7 +15850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070">
         <v>1086</v>
       </c>
@@ -15867,7 +15864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>1087</v>
       </c>
@@ -15881,7 +15878,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072">
         <v>1088</v>
       </c>
@@ -15895,7 +15892,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>1089</v>
       </c>
@@ -18877,7 +18874,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1286">
         <v>1302</v>
       </c>
@@ -18891,7 +18888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1287">
         <v>1303</v>
       </c>
@@ -18905,7 +18902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1288">
         <v>1304</v>
       </c>
@@ -18919,7 +18916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1289">
         <v>1305</v>
       </c>
@@ -18933,7 +18930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1290">
         <v>1306</v>
       </c>
@@ -18947,7 +18944,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1291">
         <v>1307</v>
       </c>
@@ -18961,7 +18958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1292">
         <v>1308</v>
       </c>
@@ -18975,7 +18972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1293">
         <v>1309</v>
       </c>
@@ -18989,7 +18986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1294">
         <v>1310</v>
       </c>
@@ -19003,7 +19000,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1295">
         <v>1311</v>
       </c>
@@ -19017,7 +19014,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1296">
         <v>1312</v>
       </c>
@@ -19031,7 +19028,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1297">
         <v>1313</v>
       </c>
@@ -19045,7 +19042,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1298">
         <v>1314</v>
       </c>
@@ -20949,7 +20946,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1434">
         <v>1450</v>
       </c>
@@ -20963,7 +20960,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1435">
         <v>1451</v>
       </c>
@@ -21691,7 +21688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1487">
         <v>1503</v>
       </c>
@@ -21705,7 +21702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1488">
         <v>1504</v>
       </c>
@@ -21719,7 +21716,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1489">
         <v>1505</v>
       </c>
@@ -21733,7 +21730,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1490">
         <v>1506</v>
       </c>
@@ -21747,7 +21744,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1491">
         <v>1507</v>
       </c>
@@ -21761,7 +21758,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1492">
         <v>1508</v>
       </c>
@@ -21831,7 +21828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1497">
         <v>1513</v>
       </c>
@@ -21845,7 +21842,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1498">
         <v>1514</v>
       </c>
@@ -21859,7 +21856,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1499">
         <v>1515</v>
       </c>
@@ -21873,7 +21870,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1500">
         <v>1516</v>
       </c>
@@ -21887,7 +21884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1501">
         <v>1517</v>
       </c>
@@ -21957,7 +21954,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1506">
         <v>1522</v>
       </c>
@@ -21971,7 +21968,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1507">
         <v>1523</v>
       </c>
@@ -21985,7 +21982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1508">
         <v>1524</v>
       </c>
@@ -21999,7 +21996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1509">
         <v>1525</v>
       </c>
@@ -22013,7 +22010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1510">
         <v>1526</v>
       </c>
@@ -22027,7 +22024,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1511">
         <v>1527</v>
       </c>
@@ -22041,7 +22038,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1512">
         <v>1528</v>
       </c>
@@ -22055,7 +22052,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1513">
         <v>1529</v>
       </c>
@@ -22069,7 +22066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1514">
         <v>1530</v>
       </c>
@@ -22083,7 +22080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1515">
         <v>1531</v>
       </c>
@@ -22097,7 +22094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1516">
         <v>1532</v>
       </c>
@@ -22237,7 +22234,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1526">
         <v>1542</v>
       </c>
@@ -22251,7 +22248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1527">
         <v>1543</v>
       </c>
@@ -22265,7 +22262,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1528">
         <v>1544</v>
       </c>
@@ -22727,7 +22724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1561">
         <v>1577</v>
       </c>
@@ -22741,7 +22738,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1562">
         <v>1578</v>
       </c>
@@ -22755,7 +22752,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1563">
         <v>1579</v>
       </c>
@@ -22769,7 +22766,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1564">
         <v>1580</v>
       </c>
@@ -22783,7 +22780,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1565">
         <v>1581</v>
       </c>
@@ -22797,7 +22794,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1566">
         <v>1582</v>
       </c>
@@ -22811,7 +22808,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1567">
         <v>1583</v>
       </c>
@@ -22825,7 +22822,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1568">
         <v>1584</v>
       </c>
@@ -22839,7 +22836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1569">
         <v>1585</v>
       </c>
@@ -22979,7 +22976,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1579">
         <v>1595</v>
       </c>
@@ -22993,7 +22990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1580">
         <v>1596</v>
       </c>
@@ -23007,7 +23004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1581">
         <v>1597</v>
       </c>
@@ -23021,7 +23018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1582">
         <v>1598</v>
       </c>
@@ -23035,7 +23032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1583">
         <v>1599</v>
       </c>
@@ -23049,7 +23046,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1584">
         <v>1600</v>
       </c>
@@ -23063,7 +23060,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1585">
         <v>1601</v>
       </c>
@@ -23077,7 +23074,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1586">
         <v>1602</v>
       </c>
@@ -23091,7 +23088,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1587">
         <v>1603</v>
       </c>
@@ -23413,7 +23410,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1610">
         <v>1626</v>
       </c>
@@ -23427,7 +23424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1611">
         <v>1627</v>
       </c>
@@ -23441,7 +23438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1612">
         <v>1628</v>
       </c>
@@ -23455,7 +23452,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1613">
         <v>1629</v>
       </c>
@@ -29937,7 +29934,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2076" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2076" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2076">
         <v>2094</v>
       </c>
@@ -29951,7 +29948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2077" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2077" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2077">
         <v>2095</v>
       </c>
@@ -29965,7 +29962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2078" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2078" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2078">
         <v>2096</v>
       </c>
@@ -29979,7 +29976,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2079" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2079" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2079">
         <v>2097</v>
       </c>
@@ -29993,7 +29990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2080" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2080" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2080">
         <v>2098</v>
       </c>
@@ -30105,7 +30102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2088" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2088" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2088">
         <v>2106</v>
       </c>
@@ -30119,7 +30116,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2089" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2089" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2089">
         <v>2107</v>
       </c>
@@ -30133,7 +30130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2090" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2090" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2090">
         <v>2108</v>
       </c>
@@ -32849,7 +32846,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2284">
         <v>2302</v>
       </c>
@@ -32863,7 +32860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2285">
         <v>2303</v>
       </c>
@@ -32877,7 +32874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2286">
         <v>2304</v>
       </c>
@@ -32891,7 +32888,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2287">
         <v>2305</v>
       </c>
@@ -32905,7 +32902,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2288">
         <v>2306</v>
       </c>
@@ -32919,7 +32916,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2289">
         <v>2307</v>
       </c>
@@ -32961,7 +32958,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2292">
         <v>2310</v>
       </c>
@@ -32975,7 +32972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2293">
         <v>2311</v>
       </c>
@@ -33059,7 +33056,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2299">
         <v>2317</v>
       </c>
@@ -33073,7 +33070,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2300">
         <v>2318</v>
       </c>
@@ -33087,7 +33084,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2301">
         <v>2319</v>
       </c>
@@ -33101,7 +33098,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2302">
         <v>2320</v>
       </c>
@@ -33115,7 +33112,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2303">
         <v>2321</v>
       </c>
@@ -33129,7 +33126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2304">
         <v>2322</v>
       </c>
@@ -33493,7 +33490,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2330">
         <v>2348</v>
       </c>
@@ -33507,7 +33504,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2331">
         <v>2349</v>
       </c>
@@ -33521,7 +33518,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2332">
         <v>2350</v>
       </c>
@@ -33535,7 +33532,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2333">
         <v>2351</v>
       </c>
@@ -33549,7 +33546,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2334">
         <v>2352</v>
       </c>
@@ -34669,7 +34666,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2414">
         <v>2433</v>
       </c>
@@ -34683,7 +34680,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2415">
         <v>2434</v>
       </c>
@@ -34697,7 +34694,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2416">
         <v>2435</v>
       </c>
@@ -34711,7 +34708,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2417">
         <v>2436</v>
       </c>
@@ -34725,7 +34722,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2418">
         <v>2437</v>
       </c>
@@ -34739,7 +34736,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2419">
         <v>2438</v>
       </c>
@@ -34753,7 +34750,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2420">
         <v>2439</v>
       </c>
@@ -35635,7 +35632,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2483">
         <v>2502</v>
       </c>
@@ -35649,7 +35646,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2484">
         <v>2503</v>
       </c>
@@ -35663,7 +35660,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2485">
         <v>2504</v>
       </c>
@@ -35677,7 +35674,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2486">
         <v>2505</v>
       </c>
@@ -35691,7 +35688,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2487">
         <v>2506</v>
       </c>
@@ -35705,7 +35702,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2488">
         <v>2507</v>
       </c>
@@ -35719,7 +35716,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2489">
         <v>2508</v>
       </c>
@@ -35733,7 +35730,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="2490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2490">
         <v>2509</v>
       </c>
@@ -35747,7 +35744,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="2491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2491">
         <v>2510</v>
       </c>
@@ -35761,7 +35758,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2492">
         <v>2511</v>
       </c>
@@ -35775,7 +35772,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2493">
         <v>2512</v>
       </c>
@@ -35789,7 +35786,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2494">
         <v>2513</v>
       </c>
@@ -35943,7 +35940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2505">
         <v>2524</v>
       </c>
@@ -35957,7 +35954,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="2506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2506">
         <v>2525</v>
       </c>
@@ -35971,7 +35968,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2507">
         <v>2526</v>
       </c>
@@ -40675,7 +40672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2843" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2843">
         <v>2863</v>
       </c>
@@ -40689,7 +40686,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2844" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2844">
         <v>2864</v>
       </c>
@@ -41291,7 +41288,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2887" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2887" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2887">
         <v>2907</v>
       </c>
@@ -41305,7 +41302,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2888" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2888">
         <v>2908</v>
       </c>
@@ -41319,7 +41316,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2889" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2889">
         <v>2909</v>
       </c>
@@ -41333,7 +41330,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2890">
         <v>2910</v>
       </c>
@@ -41347,7 +41344,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2891" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2891">
         <v>2911</v>
       </c>
@@ -41879,7 +41876,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2929" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2929">
         <v>2950</v>
       </c>
@@ -41893,7 +41890,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2930" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2930">
         <v>2951</v>
       </c>
@@ -42901,7 +42898,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3002" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3002" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3002">
         <v>3024</v>
       </c>
@@ -42915,7 +42912,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3003" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3003" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3003">
         <v>3025</v>
       </c>
@@ -42929,7 +42926,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3004" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3004" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3004">
         <v>3026</v>
       </c>
@@ -42943,7 +42940,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3005" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3005" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3005">
         <v>3027</v>
       </c>
@@ -42957,7 +42954,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3006" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3006" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3006">
         <v>3028</v>
       </c>
@@ -42971,7 +42968,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3007" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3007" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3007">
         <v>3029</v>
       </c>
@@ -42985,7 +42982,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3008" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3008" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3008">
         <v>3030</v>
       </c>
@@ -42999,7 +42996,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3009" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3009" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3009">
         <v>3031</v>
       </c>
@@ -43013,7 +43010,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3010" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3010" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3010">
         <v>3032</v>
       </c>
@@ -43027,7 +43024,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3011" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3011" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3011">
         <v>3033</v>
       </c>
@@ -43041,7 +43038,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3012" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3012" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3012">
         <v>3034</v>
       </c>
@@ -43055,7 +43052,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="3013" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3013" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3013">
         <v>3035</v>
       </c>
@@ -43069,7 +43066,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="3014" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3014" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3014">
         <v>3036</v>
       </c>
@@ -43083,7 +43080,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3015" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3015" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3015">
         <v>3037</v>
       </c>
@@ -43097,7 +43094,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3016" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3016" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3016">
         <v>3038</v>
       </c>
@@ -43111,7 +43108,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3017" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3017" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3017">
         <v>3039</v>
       </c>
@@ -43125,7 +43122,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3018" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3018" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3018">
         <v>3040</v>
       </c>
@@ -43139,7 +43136,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3019" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3019" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3019">
         <v>3041</v>
       </c>
@@ -43153,7 +43150,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3020" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3020" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3020">
         <v>3042</v>
       </c>
@@ -43167,7 +43164,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3021" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3021" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3021">
         <v>3043</v>
       </c>
@@ -43181,7 +43178,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3022" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3022" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3022">
         <v>3044</v>
       </c>
@@ -43195,7 +43192,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3023" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3023" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3023">
         <v>3045</v>
       </c>
@@ -43209,7 +43206,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3024" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3024" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3024">
         <v>3046</v>
       </c>
@@ -43223,7 +43220,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3025" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3025" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3025">
         <v>3047</v>
       </c>
@@ -43237,7 +43234,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="3026" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3026" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3026">
         <v>3048</v>
       </c>
@@ -43251,7 +43248,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3027" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3027" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3027">
         <v>3049</v>
       </c>
@@ -43265,7 +43262,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3028" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3028" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3028">
         <v>3050</v>
       </c>
@@ -43279,7 +43276,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3029" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3029" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3029">
         <v>3051</v>
       </c>
@@ -43293,7 +43290,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3030" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3030" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3030">
         <v>3052</v>
       </c>
@@ -43307,7 +43304,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3031" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3031" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3031">
         <v>3053</v>
       </c>
@@ -43321,7 +43318,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="3032" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3032" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3032">
         <v>3054</v>
       </c>
@@ -43335,7 +43332,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3033" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3033" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3033">
         <v>3055</v>
       </c>
@@ -43349,7 +43346,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3034" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3034" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3034">
         <v>3056</v>
       </c>
@@ -43363,7 +43360,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3035" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3035" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3035">
         <v>3057</v>
       </c>
@@ -43377,7 +43374,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3036" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3036" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3036">
         <v>3058</v>
       </c>
@@ -43391,7 +43388,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3037" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3037" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3037">
         <v>3059</v>
       </c>
@@ -43405,7 +43402,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3038" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3038" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3038">
         <v>3060</v>
       </c>
@@ -43419,7 +43416,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3039" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3039" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3039">
         <v>3061</v>
       </c>
@@ -43433,7 +43430,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3040" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3040" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3040">
         <v>3062</v>
       </c>
@@ -43587,7 +43584,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="3051" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3051" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3051">
         <v>3073</v>
       </c>
@@ -43601,7 +43598,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="3052" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3052" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3052">
         <v>3074</v>
       </c>
@@ -43615,7 +43612,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="3053" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3053" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3053">
         <v>3075</v>
       </c>
@@ -43629,7 +43626,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3054" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3054" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3054">
         <v>3076</v>
       </c>
@@ -43643,7 +43640,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3055" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3055" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3055">
         <v>3077</v>
       </c>
@@ -43657,7 +43654,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3056" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3056" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3056">
         <v>3078</v>
       </c>
@@ -43769,7 +43766,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="3064" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3064" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3064">
         <v>3086</v>
       </c>
@@ -43783,7 +43780,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="3065" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3065" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3065">
         <v>3087</v>
       </c>
@@ -45631,7 +45628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3197">
         <v>3219</v>
       </c>
@@ -45645,7 +45642,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3198">
         <v>3220</v>
       </c>
@@ -46373,7 +46370,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3250">
         <v>3272</v>
       </c>
@@ -46387,7 +46384,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="3251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3251">
         <v>3273</v>
       </c>
@@ -46401,7 +46398,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="3252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3252">
         <v>3274</v>
       </c>
@@ -46415,7 +46412,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="3253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3253">
         <v>3275</v>
       </c>
@@ -46429,7 +46426,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="3254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3254">
         <v>3276</v>
       </c>
@@ -46485,7 +46482,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3258">
         <v>3280</v>
       </c>
@@ -46499,7 +46496,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3259">
         <v>3281</v>
       </c>
@@ -46513,7 +46510,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3260">
         <v>3282</v>
       </c>
@@ -46527,7 +46524,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3261">
         <v>3283</v>
       </c>
@@ -46541,7 +46538,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="3262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3262">
         <v>3284</v>
       </c>
@@ -46555,7 +46552,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="3263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3263">
         <v>3285</v>
       </c>
@@ -46569,7 +46566,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="3264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3264">
         <v>3286</v>
       </c>
@@ -46583,7 +46580,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="3265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3265">
         <v>3287</v>
       </c>
@@ -46597,7 +46594,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="3266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3266">
         <v>3288</v>
       </c>
@@ -46611,7 +46608,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3267">
         <v>3289</v>
       </c>
@@ -46625,7 +46622,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3268">
         <v>3290</v>
       </c>
@@ -46639,7 +46636,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3269">
         <v>3291</v>
       </c>
@@ -46653,7 +46650,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="3270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3270">
         <v>3292</v>
       </c>
@@ -46667,7 +46664,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3271">
         <v>3293</v>
       </c>
@@ -46681,7 +46678,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3272">
         <v>3294</v>
       </c>
@@ -46695,7 +46692,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="3273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3273">
         <v>3295</v>
       </c>
@@ -46765,7 +46762,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3278">
         <v>3300</v>
       </c>
@@ -46779,7 +46776,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3279">
         <v>3301</v>
       </c>
@@ -46793,7 +46790,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3280">
         <v>3302</v>
       </c>
@@ -46807,7 +46804,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3281">
         <v>3303</v>
       </c>
@@ -46821,7 +46818,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3282">
         <v>3304</v>
       </c>
@@ -46835,7 +46832,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3283">
         <v>3305</v>
       </c>
@@ -46849,7 +46846,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3284">
         <v>3306</v>
       </c>
@@ -46863,7 +46860,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3285">
         <v>3307</v>
       </c>
@@ -46877,7 +46874,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3286">
         <v>3308</v>
       </c>
@@ -46891,7 +46888,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3287">
         <v>3309</v>
       </c>
@@ -46933,7 +46930,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3290">
         <v>3312</v>
       </c>
@@ -46947,7 +46944,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3291">
         <v>3313</v>
       </c>
@@ -46961,7 +46958,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3292">
         <v>3314</v>
       </c>
@@ -46975,7 +46972,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="3293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3293">
         <v>3315</v>
       </c>
@@ -47703,7 +47700,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3345">
         <v>3367</v>
       </c>
@@ -47717,7 +47714,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3346">
         <v>3368</v>
       </c>
@@ -47731,7 +47728,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3347">
         <v>3369</v>
       </c>
@@ -47745,7 +47742,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3348">
         <v>3370</v>
       </c>
@@ -47759,7 +47756,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3349">
         <v>3371</v>
       </c>
@@ -47773,7 +47770,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3350">
         <v>3372</v>
       </c>
@@ -47787,7 +47784,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3351">
         <v>3373</v>
       </c>
@@ -48123,7 +48120,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3375">
         <v>3397</v>
       </c>
@@ -48137,7 +48134,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3376">
         <v>3398</v>
       </c>
@@ -48221,7 +48218,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="3382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3382">
         <v>3404</v>
       </c>
@@ -48235,7 +48232,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3383">
         <v>3405</v>
       </c>
@@ -48249,7 +48246,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3384">
         <v>3406</v>
       </c>
@@ -48403,7 +48400,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="3395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3395">
         <v>3417</v>
       </c>
@@ -48417,7 +48414,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3396">
         <v>3418</v>
       </c>
@@ -49159,7 +49156,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3449">
         <v>3471</v>
       </c>
@@ -49173,7 +49170,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3450">
         <v>3472</v>
       </c>
@@ -49187,7 +49184,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3451">
         <v>3473</v>
       </c>
@@ -50167,7 +50164,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="3521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3521">
         <v>3543</v>
       </c>
@@ -50181,7 +50178,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3522">
         <v>3544</v>
       </c>
@@ -51903,7 +51900,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="3645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3645">
         <v>3668</v>
       </c>
@@ -51917,7 +51914,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="3646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3646">
         <v>3669</v>
       </c>
@@ -54479,7 +54476,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3829">
         <v>3852</v>
       </c>
@@ -54493,7 +54490,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3830">
         <v>3853</v>
       </c>
@@ -54507,7 +54504,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3831">
         <v>3854</v>
       </c>
@@ -55810,7 +55807,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3923"/>
+  <autoFilter ref="A1:D3923" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>